--- a/tests/data/with_properties3.xlsx
+++ b/tests/data/with_properties3.xlsx
@@ -1287,6 +1287,9 @@
       <c r="H6" t="s">
         <v>20</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
       <c r="N6" t="s">
         <v>31</v>
       </c>
